--- a/500all/speech_level/speeches_CHRG-114hhrg99436.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99436.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="262">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. The hearing will come to order, and I will recognize myself for 5 minutes for an opening statement.    Today's hearing on the disposal of low-level radioactive waste continues our detailed examination of what it takes to manage, store, and dispose of nuclear material.    Nuclear science and technologies take advantage of radiation and nuclear properties of the atom to perform many useful activities such as improving food safety, protecting our homeland, and providing for precise industrial production.     However, these invaluable technologies generate low-level radioactive waste which must be carefully managed and transported for disposal, even though it has a lower level of radioactivity and a shorter decay time than spent fuel from a nuclear power plant.    Additionally, as our fleet of nuclear power plants ages, more reactors must go through the decommissioning process. For example, the decommissioning plan for the Vermont Yankee plant will outlast the license for the West Texas facility where the low-level waste is currently planned to be sent.    Over 35 years ago, Congress passed the Low-Level Radioactive Waste Policy Act of 1980 to establish a system by which States would form regional compacts to have a consent-based siting process for low-level waste disposal facilities.    In 1985, after limited success in implementing the act, Congress had to amend the law to provide greater authority to host States. Ten compacts are in place today, 6 of which do not have an active disposal site, including the Central Midwest Compact, which is comprised of Illinois and Kentucky.    Eight States and the District of Columbia are not affiliated with a compact. Prior to 2008, the 6 compacts without a disposal site and the unaffiliated States had access to the Barnwell, South Carolina facility for Class B and C waste.    However, starting in 2008, the South Carolina legislature made a political decision and opted to allow access only to members of the Atlantic Compact. As we will hear today, that left a significant portion of the country without a disposal pathway for Class B and C waste until 2012, when the Texas Compact opened for business, the only facility to open as a result of the Low-Level Waste Policy Act.    While Texas is currently filling a national need, political considerations could once again shift and force States to store material onsite until a new facility is located, licensed, and accepting waste.    It is important for Congress to provide oversight of low-level waste policy to make sure States have uninterrupted access to a disposal site. While compacts must address commercially generated low-level waste, the Department of Energy must manage the low-level waste generated by its research activities and the nuclear enterprise. DOE works with the communities around the Nation to assure safe management and permanent disposal.    Today we will hear how DOE can improve its engagement to assure those communities are heard and a part of the process. Additionally, the Federal Government is responsible for disposing of greater-than-Class C waste, or GTCC, which is more hazardous than other classes of low-level waste.    The Nuclear Regulatory Commission requires that GTCC waste be disposed of in a geologic repository. In 2005, Congress directed DOE to examine disposal options for GTCC waste and to make recommendations to Congress.    Congress has not yet received any GTCC recommendations. However, DOE walked away from the most practical disposal pathway for GTCC waste when President Obama quit work on the Yucca Mountain project.    The longer DOE puts off its recommendation, the longer this material must remain onsite in temporary storage instead of in a permanent disposal repository.    The sole geologic repository that has been in operation for the Federal Government to dispose of radioactive waste is the Waste Isolation Pilot Project, or WIPP.    In 2014, WIPP experienced an incident that closed the facility. I am interested in hearing from DOE how this incident has had repercussions in the Federal Government's waste management strategy.    Today's hearing will inform this committee's efforts to advance a comprehensive policy to manage spent nuclear fuel and high-level waste.    Let us look closely at the experience of siting low-level waste repositories and how the Federal Government engages States and local communities in the decision making process.    The Department of Energy carefully and constructively engaged with the State of Nevada to provide for a mixed-level waste disposal site at the Nevada National Security Site adjacent to Yucca Mountain.    We should consider how these conversations between the Federal Government and Nevada can continue to advance the development of a deep, geologic repository for used fuel.    Thank you again to our witnesses, and I look forward to your testimony this morning.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair, and thank you to our witnesses and good morning.    We are here this morning to hear about the status of facilities and programs to dispose of low-level radioactive waste. Low-level radioactive waste includes a wide variety of materials that have become radioactive or that were contaminated by exposure to radioactive substances.    It includes cleaning items, protective equipment and medical waste, materials used in research and equipment and tools, among various other items.    The amounts of waste generated vary considerably from year to year but the volumes are significant. These materials are disposed of at three commercially operated sites here in the United States. The sites are regulated by the Nuclear Regulatory Commission.    States are responsible for the waste generated within their borders. However, groups of States have entered into compacts or other agreements that allow some to dispose of waste in one of the three existing facilities.    These are not the sites that can or will accept spent fuel from nuclear reactors. We have benefitted from our research and applications in nuclear medicine and nuclear power but these have come at a high cost.    Projections for many of the DOE-managed sites are that it will be decades before cleanup and decontamination are completed at costs in the billions of dollars.    We are fortunate to have Mark Whitney of the Department of Energy and Michael Weber of the Nuclear Regulatory Commission here with us this morning on the first panel. Again, welcome.    Thank you both for being here this morning to testify on the important work that you are doing to ensure these materials are handled and disposed of properly. We also have an excellent group of witnesses on our second panel.    On our second panel, we will hear from Mr. Chuck Smith, the chair of the Energy Communities Alliance. Mr. Smith represents the communities that live nearby contaminated sites and deal with the issues of nuclear waste cleanup and disposal on a daily basis.    Mr. Smith offers some interesting ideas for speeding cleanups and reducing cleanup costs. I agree that we should be looking at all options for nuclear waste disposal in an effort to find the safest and most cost effective ways to move forward.    We must recognize and deal with both the technical and political challenges of disposing of all classes of nuclear waste.    In addition to Mr. Smith, we will have the benefit of testimony from Ms. Leigh Ing and Ms. Jennifer Opila to provide perspectives of different State organizations responsible for these issues.    More than 60 years after beginning and expanding our use of nuclear materials, nuclear waste disposal remains a difficult and expensive problem.    The large volumes of waste generated, the high cost of treatment and disposal and the limited locations willing to host disposal facilities for any type of waste generated considerable or generate considerable an ongoing public concern and resistance.    Until we find better solutions for this problem, further development of nuclear power will be seriously constrained. So I thank you all for your participation this morning at the hearing. I look forward to your testimony and further discussion of these important issues.    With that, I yield back, Mr. Chair.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400414</t>
   </si>
   <si>
-    <t>Fred Upton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Upton. Thank you, Mr. Chairman.    Nuclear technology is deployed throughout our economy in a variety of different ways. For example, radioactive monitors accurately map subsurface geology to assist the U.S. efforts to capitalize on the oil and gas renaissance.    Nuclear medicine provides medical treatments that save thousands and thousands of lives and this technology will only grow and advance with the research and innovation that the 21st Century Cures Act will spawn.    However, all of these activities generate low-level radioactive waste, which must be properly managed, transported and disposed. Congress provided this responsibility to the States, which were to form interstate compacts to collaborate to site a disposal facility.    However, not all States joined compacts, including my home State of Michigan. There is currently only one available disposal site, located in Texas, for noncompact States.    I am pleased to welcome the Texas Low-Level Radioactive Waste Disposal Compact Commission this morning to understand how this compact is operating and to learn how they intend to dispose of the Nation's low-level waste.    In the years since Congress passed the Low-Level Radioactive Waste Policy Act of 1980, we have struggled to develop the system that Congress envisioned. Today, Canada, our neighbor in the Great Lakes region, is facing a similar challenge.    Our experience addressing permanent disposal of nuclear material may offer some lessons learned from Canada. I am hopeful that today's hearing will serve to inform this committee about ongoing challenges and opportunities in managing nuclear waste.    I also want to briefly comment on the markup that we are going to have immediately following the hearing. At last week's hearing, members discussed moving S. 611 without amendment so that we can put it on a fast track to enactment.    By unanimously passing S. 611, the Senate has given us a rare opportunity. We can do our part to help this reauthorization become law if we can all agree to approve the bill exactly as it passed the Senate so that if the House passes it, it will go directly to the President for signature.    Many smaller and rural communities across the U.S. including many in Michigan face significant challenges in replacing, maintaining and upgrading their aging water infrastructure. It is in every community.    It is also clear that many of our constituents responsible for managing small rural drinking systems do support S. 611 as well.    Many of us have discussed various ideas to improve the Safe Drinking Water Act, from addressing the State Revolving Fund to developing statutory flexibility for small systems to meet the growing technical challenges of complying with changing drinking water standards.    The bill before us today would help communities across Michigan and across the country manage increased costs and the burden of meeting complex regulatory requirements under the Safe Water Drinking Act.    So we want to make law in this area. Our best chance to do it is to take this bill, pass it without any hitches. I urge all members to support it.    I yield back.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you.    Unfortunately, there is a great deal of low-level nuclear waste generated in this country from a variety of source and those sources include not just activities at commercial nuclear reactors but also manufacturing plants, academic institutions and medical facilities and, of course, it also comes from Government activities including the cleanup of Department of Energy sites.    So having a number of safe, secure and environmentally sound options for disposal of low-level radioactive waste is important to a lot of stakeholders.    But it is also critically important for our local communities that once hosted facilities central to our national security yet continue to live with low-level and other radioactive waste even after those facilities close their doors.    The Low-Level Radioactive Waste Policy Amendment Acts of 1985 gave each State responsibility for disposing of low-level radioactive waste generated within its borders.    In doing so, it encouraged States to enter into interstate compacts so that a group of States could agree to develop a common site to dispose of their waste and to date 10 regional compacts have been formed while 8 States, Puerto Rico, and the District of Columbia remain unaffiliated.    Unfortunately, however, the track record of these sites hasn't been entirely successful. Environmental justice concerns halted a number of early efforts to site facilities in poor communities that did not desire to have them.    And so while numerous compacts were formed, only 4 are home to disposal facilities and as a result those facilities have become the de facto sites now accepting waste from a variety of other compacts in individual States.    And while that solution is currently working, I believe we need a more rational predictable policy going forward and we need to do that in a way that addresses the concerns of the communities that are home to radioactive waste generated as a result of activities that benefit us all.    Mr. Chairman, I am very interested to learn more about DOE's efforts to clean up and dispose of waste generated from its activities, particularly with regard to disposal of the most dangerous low-level radioactive waste, the greater-than-Class C waste.    I understand that the Department is working to complete a final evaluation of the potential environmental impacts associated with the proposed development of a disposal facility or facilities for greater-than-Class C and other similar waste.    I am also interested in hearing about the Nuclear Regulatory Commission's recent activities in this area. It is my understanding that NRC is currently in the process of updating its regulations regarding the disposal of low-level waste to a more risk-based system that will better align disposal requirements with current health and safety standards.    I also would like to learn more about the July 2015 NRC staff paper recommending that the commission allow the State of Texas to license the disposal of greater-than-Class C waste.    While I take no position on the Texas issue, I do think that the NRC process is important. If the commissioners are confident that Texas can license and manage a program that includes the most dangerous low-level waste then this opens up a real potential for benefit to communities around the country and it would also serve as a step on the road to considering the siting of facilities to dispose of material that pose risks greater than low-level waste.</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t>412189</t>
   </si>
   <si>
-    <t>Jerry McNerney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McNerney. I thank the ranking member, and I thank the chairman for holding this important hearing.    Low-level nuclear waste may not be as dangerous as high-level nuclear waste but it is still a risk and people are justifiably concerned about that risk.    There are engineering solutions that would allow us to find disposal sites, to transport nuclear materials for those disposal sites and there is an urgency to this problem.    But the real challenge is the politics. In order to get this accepted we have to be transparent. We have to let the public know what the risks are and what benefits there might be to local communities.    We need to let them buy into it because if we try to enforce nuclear waste on any communities it is not going to work. So I urge that we develop a system that is very transparent, that is very public friendly and I think if we do that we will be able to find a solution.    So with that, I will yield back.</t>
   </si>
   <si>
@@ -112,18 +97,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Whitney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whitney. Thank you, sir.    Good morning, Chairman Shimkus, Ranking Member Tonko and members of the subcommittee. I do appreciate the opportunity to be here with you today to discuss the Office of Environmental Management's activities to safely and properly dispose of DOE-generated low-level radioactive waste and our ongoing planning efforts for disposal of greater-than-Class C low-level radioactive waste.    First, let me state that safe performance of our work is our overarching priority. The Department's first responsibility is to protect our workers, the public and environment during our cleanup mission.    Safety first is the clear expectation for every activity that we undertake in implementing that mission. The Department of Energy is the largest generator of low-level radioactive waste by volume in the Nation with most waste derived from the Office of Environmental Management's cleanup efforts.    Since 2005, the Department has safely disposed of over 330 million cubic feet of low-level radioactive waste. The overwhelming majority of the Department's low-level radioactive waste is disposed of on the site where generated.    In fiscal year 2014, 23 million cubic feet of mixed and low-level radioactive waste were disposed of at the site where generated.    The Department sites that have the capability to dispose of all or a portion of their onsite-generated waste include the Hanford site, the Idaho site, the Los Alamos National Laboratory, which has limited capability, the Nevada National Security Site, Savannah River Site and the Oak Ridge Reservation.    In fiscal year 2015, a decision was made to construct a future new disposal facility for decommissioning and remediation waste at the Portsmouth Gaseous Diffusion Plant and similarly the Department is continuing to evaluate options for similar waste disposal onsite at the Paducah Gaseous Diffusion Plant.    The Department of Energy sites without an onsite disposal facility mixed and low-level radioactive waste may be disposed of at the Department's regional disposal site.    At present time, the Nevada National Security Site remains the Department's only regional disposal site available to serve the needs of the Department's cleanup complex.    Commercial firms also provide each of the Department sites with options for mixed and low-level radioactive waste disposal. The Department's policy is generally not to utilize the commercial disposal facilities operated by the regional disposal compacts.    However, when compliant, cost effective and in the best interest of the Government and after formal approval process the Department may utilize commercial disposal firms.    Finally, I would like to provide you with an update on where the Department of Energy is with the disposal of greater-than-Class C low-level radioactive waste, GTCC.    The Department is currently finalizing the final environmental impact statement for the disposal of GTCC waste and GTCC-like waste.    The final environmental EIS will evaluate the potential impacts associated with the proposed development, operation and long-term management of a disposal facility or facilities for GTCC low-level radioactive waste and GTCC-like waste.    GTCC-like waste is radioactive waste that is owned or generated by DOE and has characteristics similar to those of GTCC waste such that a common disposal approach may be appropriate.    The Department plans to identify a preferred alternative in the final environmental impact statement. In developing the final EIS, the Department will have considered public comments on the draft GTCC EIS, human health, disposal methods and waste types.    The Department anticipates publication of the final environmental impact statement within the next quarter. After the publication of the final environmental impact statement the Department will submit a report to Congress as required by the Energy Policy Act of 2005.    The report to Congress will include a description of the disposal alternatives considered in the final environmental impact statement and must await action by Congress.    Congressional action would enable the Department to proceed with issuing a record of decision on greater-than-Class C low-level radioactive waste disposal.    The Department is eager to work with members of Congress on the path forward for GTCC low-level radioactive waste and GTCC-like waste disposal.    Thank you again for the opportunity to discuss the Department's low-level radioactive waste disposal activities.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much.    Now, I will turn to Mr. Michael Weber, deputy executive director of operations for materials, waste, research date and compliance program with the Nuclear Regulatory Commission.    Again, your full statement is in the record. You have 5 minutes. Welcome.</t>
   </si>
   <si>
-    <t>Weber</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weber. Good morning, Chairman Shimkus, Vice Chairman Harper, and Ranking Member Tonko, and distinguished members of the subcommittee and the committee.    I appreciate the opportunity to testify this morning on the U.S. Nuclear Regulatory Commission's regulation of low-level radioactive waste.    In my testimony I will highlight, one, NRC's regulatory role working in partnership with the States, two, the current regulatory framework, and three, two current regulatory improvement initiatives.    Since the Congress established the Nuclear Regulatory Commission in 1975, the agency has worked with our State partners to ensure protection of the public health and safety associated with low-level waste management.    This waste is generated by thousands of industrial, academic, medical, and Government licensees across the United States. Disposal of the waste is permitted in 4 operating facilities and the importance of the safe management of commercial low-level waste has long been a matter of congressional interest.    In 1980, the Congress enacted the Low-Level Radioactive Waste Policy Act and amended it in 1985. Under the Atomic Energy Act of 1954, the NRC regulates the safety and security of the generation, storage, transportation and disposal of commercial low-level waste.    Pursuant to the law, the NRC has relinquished its licensing and enforcement authority over most nuclear materials in 37 States that have entered an agreement with the NRC--so-called agreement States.    An agreement State conducts the regulatory programs that are adequate and compatible with the NRC regulatory requirements and oversees agreement State programs.    The four commercial low-level waste disposal facilities and more than 85 percent of the licensees that generate low-level waste are regulated by the agreement States.    The NRC and agreement States have established a comprehensive regulatory framework that ensures the safety of low-level waste management.    Among the regulations the NRC has established, 10 CFR Part 61 contains the primary regulations governing the disposal of low-level waste.    The promulgation of Part 61 in 1982 was driven by some of the same factors that prompted the Congress to enact the Low-Level Radioactive Waste Policy Act of 1980, including the need to establish a stable regulatory regime to govern safe disposal of the waste.    The NRC is currently working to improve the regulations and the regulatory framework. Several years ago, the commission initiated development of a rule making proposal to improve Part 61 with respect to waste streams that were not contemplated at the time of the initial development of the rule in the late 1970s such as the disposal of significant quantities of depleted uranium waste.    On March 26th of this year, the commission published for public comment a proposed rule and associated draft guide and NRC solicited comments from the public and also conducted five public meetings in the vicinity of the operating disposal facilities.    The comment period for this proposed rule closed last month, September 21st. The NRC staff is currently analyzing public comments.    As we develop the final rule, we will continue to work closely with the agreement States and we expect to provide a draft rule for commission consideration in 2016.    The second initiative is the disposal of greater-than-Class C waste. This waste has concentration of radio nuclides that exceed the limits established by the NRC for Class C waste and is generally not therefore suitable for near surface disposal.    Congress assigned the responsibility for the disposal of this waste to the Federal Government and required that the waste be disposed of in a facility licensed by the Nuclear Regulatory Commission.    In 1989, the commission amended its regulations in Part 61 to require such waste be disposed of in a geologic repository or in an alternative disposal facility approved by the commission.    On January 30th, 2015, the State of Texas sent a letter to the NRC enquiring whether a State, as an agreement State, can regulate the disposal of this waste.    In July 2015, the NRC staff provided the commission with an analysis of the associated issues along with options and a recommendation that the NRC allow the State of Texas to regulate the disposal of the waste.    NRC also recommended that NRC conduct a rule making to establish regulatory requirements covering this waste and on August 13th, 2015 the commission held a public meeting with the staff, the State of Texas and stakeholders to discuss the issue and the commission is currently considering how best to proceed.    NRC believes its regulatory program adequately protects the public health and safety. We work with our agreement State partners to accomplish the safety mission.    I want to thank you for the opportunity to testify before you today and I would be pleased to respond to your questions.</t>
   </si>
   <si>
@@ -247,9 +226,6 @@
     <t>412280</t>
   </si>
   <si>
-    <t>Gregg Harper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman, and thanks to each of you for being here. This is an issue that is very important.    Obviously, we made--sometimes in the public when you hear low-level you let your guard down and don't realize that these are issues that are--have to be addressed and certainly we expect to figure out a way to cooperate and work together to achieve those goals, both with DOE and with the NRC.    And first, for you, Mr. Weber, if I could, the NRC, I know, is evaluating changes to its regulations affecting LLW disposal including Part 61 regulations--how low-level waste is classified and greater-than-Class C disposal pathways.    There appear to be areas of overlap and a precedence among these various initiatives.    Has the NRC conducted a high-level analysis to determine whether there should be more--a more comprehensive rule making or at least greater coordination of seemingly disparate activities? If not, why not?</t>
   </si>
   <si>
@@ -298,9 +274,6 @@
     <t>400160</t>
   </si>
   <si>
-    <t>Gene Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman, you and ranking member, for holding the hearings on low-level radioactive waste.    I would like to thank all our panelists for being here. I share concerns of many of the subcommittee that the Federal Government needs to move forward to find a suitable site for greater-than-Class C radioactive waste.    It is my hope that Department of Energy and NRC are taking all safe options under strong consideration in working with private sector and local communities to find a solution that is the best interest of all the impacted stakeholders.    Mr. Weber, on January 30th of 2015, the Texas Commission on Environmental Quality sent a letter to the NRC requesting responses to questions concerning the State of Texas' authority to license of disposal cell for the greater-than-Class C, GTCC-like and transuranic waste.    I understand that in July in a paper to the commission the NRC developed three options and recommended one of these options, Option two, in allowing the State of Texas to license and regulate the disposal of GTCC waste.    Is this correct?</t>
   </si>
   <si>
@@ -340,9 +313,6 @@
     <t>412427</t>
   </si>
   <si>
-    <t>Larry Bucshon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bucshon. Thank you, Mr. Chairman.    Mr. Whitney, the USEC Privatization Act assigned responsibility to the Department of Energy to dispose of depleted uranium, a byproduct of uranium enrichment.    Has the NRC worked with the DOE to develop a disposal pathway for depleted uranium?</t>
   </si>
   <si>
@@ -382,9 +352,6 @@
     <t>412480</t>
   </si>
   <si>
-    <t>Bill Flores</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Flores. Thank you, Mr. Chairman.    I believe that Mr. Green asked most of my questions so I will pass at this point.</t>
   </si>
   <si>
@@ -394,9 +361,6 @@
     <t>400320</t>
   </si>
   <si>
-    <t>Joseph R. Pitts</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pitts. Mr. Weber, as a part of the public comment process for NRC's revisions to Part 61 regulations--the governmental low-level waste disposal facility--the agreement States requested that NRC revise the compatibility requirements from what is known as compatibility B, which require agreement States to have the same regulatory standards as NRC, to compatibility C, which permit agreement States to have more stringent regulatory standards than NRC regs.    Will the NRC staff address this issue as part of the rule making process prior to providing the rule to the commission for approval?</t>
   </si>
   <si>
@@ -490,9 +454,6 @@
     <t>412460</t>
   </si>
   <si>
-    <t>Bill Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman, and gentlemen, thank you for being with us today.    Mr. Whitney, I want to build upon the conversation that we began last time you testified in September.    As you might remember, we discussed the importance of the decontamination and the decommissioning work at the former Gaseous Diffusion Plant at Piketon, Ohio.    Astonishingly, DOE has recently decided to terminate funding for the American Centrifuge Project also located at Piketon.    If DOE doesn't soon reverse its decision, we are about to add to the price tag of that D&amp;D work because that facility there will have to be dealt with, which DOE already attempts to under fund year after year.    So that D&amp;D work is--it is a battle each and every year, it seems, to get DOE to put the appropriate amount of money towards it.    DOE's own analysis has confirmed that the ACPs-- AC100 centrifuge technology will be needed to meet our national security enrichment needs in as little as 10 years.    So allowing the ACP, currently our only domestic enrichment capability to shutter its operations now only require--only to require its inevitable remobilisation shortly thereafter seems to me is a severe mismanagement of Federal resources and an ill-advised decision because rehiring of this uniquely skilled workforce and its overall remobilisation will prove costly.    So the national security optics and consequences of the ACP closure are both very troubling. So, Mr. Whitney, some questions.    Was the D&amp;D costs to dismantle the current Piketon AC100 facility--was that taken into consideration when DOE decided to cease ACP funding? Do you know if they contacted anyone in your department about that?</t>
   </si>
   <si>
@@ -553,25 +514,16 @@
     <t xml:space="preserve">    Mr. Shimkus. Chairman yields back his time.    Seeing no other members present, we would like to thank you for being here and answering our questions and your testimony, and with that we will excuse the first panel and seat the second.    So we will begin with the second panel. Thank you for coming. I will do similar as I did at first. I will just introduce you when it is your time and we want to welcome you here.    So first to speak to us is Ms. Jennifer Opila. Is that--Opila. All right.    Ms. Jennifer Opila, director, Organization of Agreement States. Thank you. Your full statement is in the record. You have 5 minutes.</t>
   </si>
   <si>
-    <t>Opila</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Opila. Thank you very much, Chairman, and Ranking Member Tonko, and distinguished members of the subcommittee.    I appreciate the opportunity to represent the Organization of Agreement States and discuss the OAS' views on low-level radioactive waste management with you.    The membership of OAS consists of State radiation control directors and staff from the 37 agreement States, who are responsible for the implementation of their respective agreement State programs.    Agreement States are those States that have entered into an effective regulatory discontinuance agreement with the Nuclear Regulatory Commission under subsection 274(b) of the Atomic Energy Act, the AEA.    The role of the agreement States is to regulate most types of radioactive material in accordance with the compatibility requirements, the AEA.    Under its own internal practices, the NRC periodically reviews the performance of each agreement State to assure compatibility with the NRC's regulatory standards.    The purpose of the OAS is to provide a mechanism for these agreement States to work with each other and with the NRC on regulatory issues associated with their respective agreements.    Throughout the years, both agreement States and nonagreement States have had the responsibility for implementing the Low-Level Radioactive Waste Policy Act.    As a result of the Low-Level Radioactive Waste Policy Act, States have formed compacts that have facilitated the safe disposal of radioactive waste.    At times, the compact system has been criticized because it has resulted in many States not having access to disposal facilities.    However, with the recent establishment of the Waste Control Specialist Facility in Texas, the establishment of the Texas Vermont Compact and that compact allowing access to the WCS facility from out of compact facilities, this situation has been largely resolved and that all States now have access to a waste disposal facility.    Additionally, the WCS facility has added much needed capacity to the overall low-level waste disposal inventory. The OAS board believes that the compact system should be maintained so that States can control the import and export of low-level radioactive waste within their jurisdiction.    Agreement States play a vital role in the regulation of low-level radioactive waste disposal in the United States. All four active low-level waste sites operate in the agreement States of Texas, Utah, South Carolina, and Washington.    It is these States, not the NRC, who have decades of experience in regulating low-level waste disposal. These States brought this experience to the recent discussions of changes to 10 CFR Part 61, the Federal rule regarding low-level radioactive waste disposal.    The purpose of this rule change was to consider the impacts resulting from the disposal of unique waste streams such as significant quantities of depleted uranium from the operation of a commercial uranium enrichment facility.    The OAS board has two primary objections to the current proposed amendments to Part 61. First, the board objects to redoing a sites performance assessment unless that site opts to take significant quantities of long-lived alpha emitters such as depleted uranium.    Sites that are not going to be accepting these unique waste streams do not need to conform to a performance assessment process that is designed specifically for those unique waste streams.    Importantly, performance assessments addressing the disposal of significant quantities of depleted uranium for two of the existing low-level waste disposal facilities have either been completed or will soon be completed.    Second, the board proposes compatibility C designation instead of compatibility B designation, as currently proposed by the NRC for the new requirements of Part 61.    Many States that regulate low-level radioactive waste sites currently have State standards that are more stringent than the requirements in the proposed rule.    These States should not be forced to weaken their standards to conform to the new NRC rules. Compatibility C designation would allow these States to implement standards that are acceptable to the State and the communities that host these disposal facilities as long as those standards are at least as stringent as the NRC standards.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much.    Next, I would like to turn to Ms. Leigh Ing, executive director of Texas Low-Level Radioactive Waste Disposal Compact Commission.    You are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Ing</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ing. Thank you very much and thank you for the opportunity to provide testimony, Chairman Shimkus and Ranking Member Tonko. I will be providing testimony today on low-level radioactive waste compacts, in particular my compact, Texas and Vermont.    As you are well aware, low-level compacts are agreements between two or more States in which one of the States becomes the host State by providing a disposal facility.    The remaining States in that compact are guaranteed access to low-level radioactive waste to that disposal facility. Currently, we have 10 compacts that have been established in this country, 3 of which have disposal facilities.    We have the Richland facility in the Northwest Compact that includes the States around Washington as well as Hawaii and Alaska, and that facility can take Class A, B, and C waste.    We also have the Clive facility in Utah, which is open to all States but it can take only Class A. We also have the Barnwell facility in South Carolina that can take waste from South Carolina, New Jersey and Connecticut.    And then we have my compact, the Texas and Vermont compact, which includes only the State of Texas and Vermont, which guarantees access to all low-level waste generated in Texas and in Vermont.    One of the things unique about my compact is that--and there is the map that has all of the compacts and you can see where I have--we have a facility in the corner of Texas and there are stars where there are facilities that can take low-level radioactive waste in our compact.    [The information appears with Ms. Ing's prepared statement.]    One of the things that is unique about my compact is that the State of Texas has passed a statute which allows our compact to accept imports from all the other States, the District of Columbia and territories up to a limit of 275,000 curies per year.    The role--the very important role of my compact which is composed of eight voting members and one alternative, six of those members are put in place by the Governor of Texas. Two, in the alternate, are put in place by the Governor of Vermont.    One of my Texas commissioners by my compact law is required to be a representative of the local community. What that commission does is we take a look at all generators or brokers who may choose to import to our facility and make sure that the applications to import meet all of the criteria for import into our compact.    We also work with the State of Texas to ensure that the waste coming in is acceptable to the owner of the site, the State of Texas. We meet about--approximately every six weeks to approve all of these that we deem are approvable. To date, we have approved almost a hundred import applications that represent imports from 40 States and from Puerto Rico as well as from the District of Columbia.    Overall, we regard what we have been doing has been very successful. It has been a learning process for us. We are the first compact that takes imports this way and learning how generators and brokers work and how our fellow compacts work is that we can work collegiately with our compacts had been a very good process.    But we have been learning and tweaking our process as we learn more.    I would say there are three very important points to make that we have learned through this process. One, because of our facility in the Andrews area, we now have access--in concert with our other facilities we have access to all 50 States, the District of Columbia, and territories in this country for low-level radioactive waste as a result of the compact system as put forth by the Low-Level Waste Policy Act.    Although it may not have been implemented exactly as intended, we do now have waste capacity for everywhere in the United States. The other thing that I think is important to point out is that one of the reasons we have this is because the compacts can exclude waste outside of the compact if it chooses to do so, as was done by the Atlantic compact and was done by the Northwest Compact. That can also be done in ours.    But currently, given how imports assist the country and assist the viability of our facility, and the State of Texas and locals also get fees from that, there is not direction that has been put forward to limit that at this time.    The third and final point I will make is that my commissioners unanimously believe it is important to have a disposal pathway and to do everything in our process and working with generators and brokers to make that pathway available so that as opposed to being stored it is disposed of up to 275,000 curies per year at the facility.    And that concludes my remarks. Thank you very much for allowing me to provide testimony today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. You are welcome. We are happy to have you here.    Next, I would like to turn to Mr. Chuck Smith, council member of Aiken County--I visited in Aiken County just last spring--South Carolina, chairman of the Energy Community Alliance.    So welcome. You are recognized for 5 minutes.</t>
-  </si>
-  <si>
-    <t>Smith</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Chairman Shimkus, Ranking Member Tonko and members of the subcommittee. Thank you for inviting me to testify today.    Again, I am Chuck Smith, council member from Aiken County, South Carolina. I am a board member of the Savannah River Site community reuse organization and chairman of Energy Communities Alliance, the association of local communities that are adjacent to, impacted by or supporting DOE activities.    Our communities have long played a key role in supporting the country's national security efforts, hosting these facilities with the understanding that the waste would ultimately be disposed of in a safe and timely manner.    ECA understands that nuclear waste disposition presents many challenges, often more political than technical, and as you are well aware the development of a geological repository has not proceeded as planned and which is currently receiving waste.    Therefore, there are waste streams in our communities that still have no clear disposal path and we remain de factor nuclear waste storage sites.    Today, I would like to make three recommendations. First, ECA urges Congress to consider feasible alternatives to move waste out of our community safely, beginning with classifying waste based on its composition, not just by where it originated.    This would allow the country to move forward properly, safely and scientifically to dispose of radioactive waste and save taxpayers millions of dollars, and we think it just makes sense.    ECA believes that changing the way the United States classifies waste can provide additional safe publically acceptable disposable alternatives, leading to lower Federal and taxpayers cost for storage and less risk to human health and the environment.    Our radioactive waste classification system currently relies primarily on point of origin rather than composition, with specific hazards posed by its disposal.    This approach has many deficiencies. It can be misleading. Some waste classified as low-level waste can be more long lived and pose a higher risk than others labelled high-level or transuranic.    It could be inconsistent. Low-level waste is defined by exclusion whereas high-level waste is defined by its source. It can also be vague as is the case with the existing definition for high-level waste, which states the waste must contain fission products in sufficient concentrations.    This does not adequately address the current state of defense high-level waste, some of which could technically qualify as transuranic waste if based on its radioactive material content. Only the U.S. classifies nuclear waste this way.    ECA recommends that NRC and DOE work together to consider this option. Many stakeholders feel that NRC and DOE already have the existing authority to make the change.    ECA is looking to Congress to implement a change immediately through legislation. ECA's multi community task force has drafted proposed language for congressional consideration and we have shared this with your staff.    For greater-than-Class C waste disposal in a geologic repository is the only method currently approved by the NRC. In its absence, greater-than-Class C and greater-than-Class C-like waste which includes waste from DOE cleanup programs, has no disposal path.    As the Savannah River Site community reuse organization specifically noted in a 2011 letter to DOE, this waste is considered orphaned and they do not support Savannah River Site as a potential candidate for its disposal.    As a board member of the SRS CRO, we follow the community's guiding principle which is no waste or excess material shall be brought into South Carolina unless and improved and funded pathway exists for processing a shipment to either a customer or an out-of-State waste disposal facility and clarifying waste definitions would be helpful in identifying those disposal paths.    Number two, ECA recommends that full consideration be given--support be given to communities and States interested in providing alternative storage and disposal options as part of a consent-based process.    Greater-than-Class C and greater-than-Class C-like waste is essentially the same as remote handled transuranic waste from the defense sector, which is already exposed of at WIPP near Carlsbad, New Mexico.    The local communities there are knowledgeable on these issues and supportive of the cleanup efforts. If DOE and NRC determine this alternative is safe, secure and reliable, if legislation is passed to allow WIPP to accept the commercial waste as well as the defense waste it already takes, if the necessary regulatory changes are made and resources are provided for outreach and education to ensure the impacted communities in the State understand the potential risk and benefits and approve, WIPP could take appropriate classified transuranic waste as well as a small amount of commercial greater-than-Class C waste.    This could result in more room for high-level waste and spent nuclear fuel in Yucca Mountain or any other geological repository.    As you are well aware, Yucca Mountain is considered full before it even opens. I should also mention the efforts by the State of Texas to license a disposal cell for greater thank Class C and greater-than-Class C-like waste or transuranic waste.    Waste control specialists has a proven track record for safe disposal of low-level waste in Texas. They work closely with the surrounding communities and they too are interested in taking the waste.    Nye County also supports the inclusion of Yucca Mountain as an alternative for disposal of greater-than-Class C waste. However, DOE took it off the table in its draft EIS prior to the resolution of the regulatory and legal issues.    This was due in large part to the administration's determination that Yucca Mountain is not a workable option and suspension of its licensing activities with the NRC.    And lastly, the public must have the opportunity to formally comment on any preferred alternative in pursuit of a consent-based process.    ECA looks forward to reviewing DOE's final greater-than-Class C EIS when it is released. However, as impacted communities we stress that the public must have an opportunity to formally comment on DOE's preferred alternative, especially as we move towards implementing a consent-based process.    This needs to happen even if DOE will have to delay its recommendation to Congress and any record of decision while they take public input into account.    In closing, there are options and the Federal Government needs to give serious consideration to all safe alternatives. Doing so may allow us to overcome stalemates, build momentum and implement a comprehensive strategy that will get waste moving out of our communities as safely and expeditiously as possible.    Again, I want to thank you for the opportunity to present this testimony to you today.</t>
@@ -1246,11 +1198,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1272,11 +1222,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1296,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1324,11 +1270,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1348,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1376,11 +1318,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1400,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1426,13 +1364,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1452,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1480,11 +1414,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1504,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1532,11 +1462,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1556,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1584,11 +1510,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1608,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
         <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1636,11 +1558,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1660,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1688,11 +1606,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1712,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1740,11 +1654,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1764,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1792,11 +1702,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1816,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1844,11 +1750,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1868,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1896,11 +1798,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1920,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1948,11 +1846,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1972,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2000,11 +1894,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2024,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2052,11 +1942,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2076,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2104,11 +1990,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2128,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2154,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2180,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2206,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2232,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2258,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2284,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2310,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2336,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2362,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2388,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2414,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2440,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2466,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2492,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2518,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2544,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2570,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2598,11 +2446,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2622,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G55" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2648,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
-      </c>
-      <c r="G56" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2674,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2700,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G58" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2726,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2752,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
-      </c>
-      <c r="G60" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2778,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
         <v>76</v>
-      </c>
-      <c r="G61" t="s">
-        <v>77</v>
-      </c>
-      <c r="H61" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2804,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2830,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2856,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2882,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G65" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2908,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
-      </c>
-      <c r="G66" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2934,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67" t="s">
-        <v>77</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2962,11 +2782,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2986,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3014,11 +2830,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3038,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>93</v>
-      </c>
-      <c r="G71" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3064,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
-      </c>
-      <c r="G72" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3090,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>93</v>
-      </c>
-      <c r="G73" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3116,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3142,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G75" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3168,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
-      </c>
-      <c r="G76" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3194,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>93</v>
-      </c>
-      <c r="G77" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3220,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G78" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3246,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>93</v>
-      </c>
-      <c r="G79" t="s">
+        <v>85</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
         <v>94</v>
-      </c>
-      <c r="H79" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3274,11 +3070,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3298,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>93</v>
-      </c>
-      <c r="G81" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3326,11 +3118,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3350,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>107</v>
-      </c>
-      <c r="G83" t="s">
-        <v>108</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3376,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
-      </c>
-      <c r="G84" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3402,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>107</v>
-      </c>
-      <c r="G85" t="s">
-        <v>108</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3428,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
-      </c>
-      <c r="G86" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3454,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
-      </c>
-      <c r="G87" t="s">
-        <v>108</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3480,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
-      </c>
-      <c r="G88" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3506,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>107</v>
-      </c>
-      <c r="G89" t="s">
-        <v>108</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3532,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
-      </c>
-      <c r="G90" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3558,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
+        <v>98</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
         <v>107</v>
-      </c>
-      <c r="G91" t="s">
-        <v>108</v>
-      </c>
-      <c r="H91" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3584,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
-      </c>
-      <c r="G92" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3610,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
-      </c>
-      <c r="G93" t="s">
-        <v>108</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3638,11 +3406,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3662,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>121</v>
-      </c>
-      <c r="G95" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3690,11 +3454,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3714,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>125</v>
-      </c>
-      <c r="G97" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3740,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
-      </c>
-      <c r="G98" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3766,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>125</v>
-      </c>
-      <c r="G99" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3792,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
-      </c>
-      <c r="G100" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3818,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>125</v>
-      </c>
-      <c r="G101" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3844,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
-      </c>
-      <c r="G102" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3870,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>125</v>
-      </c>
-      <c r="G103" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3896,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
-      </c>
-      <c r="G104" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3922,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>125</v>
-      </c>
-      <c r="G105" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3948,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
-      </c>
-      <c r="G106" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3974,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
-      </c>
-      <c r="G107" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4000,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>125</v>
-      </c>
-      <c r="G108" t="s">
+        <v>114</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
         <v>126</v>
-      </c>
-      <c r="H108" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4026,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
-      </c>
-      <c r="G109" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4052,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>125</v>
-      </c>
-      <c r="G110" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4078,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
-      </c>
-      <c r="G111" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4104,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>125</v>
-      </c>
-      <c r="G112" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4130,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
-      </c>
-      <c r="G113" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4156,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>125</v>
-      </c>
-      <c r="G114" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4182,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
-      </c>
-      <c r="G115" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4208,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>125</v>
-      </c>
-      <c r="G116" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4236,11 +3958,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4260,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4286,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
-      </c>
-      <c r="G119" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4312,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4338,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
-      </c>
-      <c r="G121" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4364,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
-      </c>
-      <c r="G122" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4390,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
-      </c>
-      <c r="G123" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4416,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
-      </c>
-      <c r="G124" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4442,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
-      </c>
-      <c r="G125" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4468,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G126" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4496,11 +4198,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4520,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>157</v>
-      </c>
-      <c r="G128" t="s">
-        <v>158</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4546,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
-      </c>
-      <c r="G129" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4572,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>157</v>
-      </c>
-      <c r="G130" t="s">
-        <v>158</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4598,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
-      </c>
-      <c r="G131" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4624,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>157</v>
-      </c>
-      <c r="G132" t="s">
-        <v>158</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4650,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
-      </c>
-      <c r="G133" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4676,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>157</v>
-      </c>
-      <c r="G134" t="s">
-        <v>158</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4702,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
-      </c>
-      <c r="G135" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4728,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>157</v>
-      </c>
-      <c r="G136" t="s">
-        <v>158</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4754,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
-      </c>
-      <c r="G137" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4780,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>157</v>
-      </c>
-      <c r="G138" t="s">
-        <v>158</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4806,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
-      </c>
-      <c r="G139" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4832,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>157</v>
-      </c>
-      <c r="G140" t="s">
+        <v>145</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
         <v>158</v>
-      </c>
-      <c r="H140" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4858,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
-      </c>
-      <c r="G141" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4884,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>157</v>
-      </c>
-      <c r="G142" t="s">
-        <v>158</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4910,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
-      </c>
-      <c r="G143" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4936,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>157</v>
-      </c>
-      <c r="G144" t="s">
-        <v>158</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4962,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
-      </c>
-      <c r="G145" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4988,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>157</v>
-      </c>
-      <c r="G146" t="s">
-        <v>158</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5016,11 +4678,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5040,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
-      </c>
-      <c r="G148" t="s">
-        <v>179</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5068,11 +4726,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5092,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
-      </c>
-      <c r="G150" t="s">
-        <v>182</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5120,11 +4774,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5144,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
-      </c>
-      <c r="G152" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5172,11 +4822,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5196,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
-      </c>
-      <c r="G154" t="s">
-        <v>182</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5224,11 +4870,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5248,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
-      </c>
-      <c r="G156" t="s">
-        <v>182</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5276,11 +4918,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5300,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
-      </c>
-      <c r="G158" t="s">
-        <v>182</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5328,11 +4966,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5352,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
-      </c>
-      <c r="G160" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5380,11 +5014,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5404,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
-      </c>
-      <c r="G162" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5432,11 +5062,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5456,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
-      </c>
-      <c r="G164" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5484,11 +5110,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5508,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
-      </c>
-      <c r="G166" t="s">
-        <v>179</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5536,11 +5158,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5560,13 +5180,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
-      </c>
-      <c r="G168" t="s">
-        <v>179</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5588,11 +5206,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5612,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
-      </c>
-      <c r="G170" t="s">
-        <v>179</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5640,11 +5254,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5664,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>15</v>
-      </c>
-      <c r="G172" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5690,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
-      </c>
-      <c r="G173" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5716,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>15</v>
-      </c>
-      <c r="G174" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5742,13 +5348,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
-      </c>
-      <c r="G175" t="s">
-        <v>179</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5768,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>15</v>
-      </c>
-      <c r="G176" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5794,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
-      </c>
-      <c r="G177" t="s">
-        <v>179</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5820,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>15</v>
-      </c>
-      <c r="G178" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5846,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
-      </c>
-      <c r="G179" t="s">
-        <v>182</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5872,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>15</v>
-      </c>
-      <c r="G180" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5898,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
-      </c>
-      <c r="G181" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5924,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>15</v>
-      </c>
-      <c r="G182" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5950,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
-      </c>
-      <c r="G183" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5976,13 +5564,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>15</v>
-      </c>
-      <c r="G184" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6002,13 +5588,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
-      </c>
-      <c r="G185" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6028,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>15</v>
-      </c>
-      <c r="G186" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6054,13 +5636,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
-      </c>
-      <c r="G187" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6080,13 +5660,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>15</v>
-      </c>
-      <c r="G188" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6106,13 +5684,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
-      </c>
-      <c r="G189" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6132,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>15</v>
-      </c>
-      <c r="G190" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6158,13 +5732,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
-      </c>
-      <c r="G191" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6184,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>15</v>
-      </c>
-      <c r="G192" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6210,13 +5780,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
-      </c>
-      <c r="G193" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6236,13 +5804,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>15</v>
-      </c>
-      <c r="G194" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6264,11 +5830,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6288,13 +5852,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>121</v>
-      </c>
-      <c r="G196" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6314,13 +5876,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
-      </c>
-      <c r="G197" t="s">
-        <v>182</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6340,13 +5900,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>121</v>
-      </c>
-      <c r="G198" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6366,13 +5924,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
-      </c>
-      <c r="G199" t="s">
-        <v>182</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6392,13 +5948,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>121</v>
-      </c>
-      <c r="G200" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6418,13 +5972,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
-      </c>
-      <c r="G201" t="s">
-        <v>182</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6444,13 +5996,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>121</v>
-      </c>
-      <c r="G202" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6472,11 +6022,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6496,13 +6044,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>121</v>
-      </c>
-      <c r="G204" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6524,11 +6070,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>12</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6548,13 +6092,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
-      </c>
-      <c r="G206" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6576,11 +6118,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>12</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6600,13 +6140,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
-      </c>
-      <c r="G208" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6628,11 +6166,9 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" t="s">
-        <v>12</v>
-      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6652,13 +6188,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>31</v>
-      </c>
-      <c r="G210" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6680,11 +6214,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6704,13 +6236,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
-      </c>
-      <c r="G212" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6732,11 +6262,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6756,13 +6284,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
-      </c>
-      <c r="G214" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6784,11 +6310,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6808,13 +6332,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
-      </c>
-      <c r="G216" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6836,11 +6358,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6860,13 +6380,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>31</v>
-      </c>
-      <c r="G218" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6888,11 +6406,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>12</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6912,13 +6428,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
-      </c>
-      <c r="G220" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6940,11 +6454,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>12</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6964,13 +6476,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
-      </c>
-      <c r="G222" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6992,11 +6502,9 @@
       <c r="F223" t="s">
         <v>11</v>
       </c>
-      <c r="G223" t="s">
-        <v>12</v>
-      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7016,13 +6524,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>23</v>
-      </c>
-      <c r="G224" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7042,13 +6548,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
-      </c>
-      <c r="G225" t="s">
-        <v>182</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7068,13 +6572,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>23</v>
-      </c>
-      <c r="G226" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7096,11 +6598,9 @@
       <c r="F227" t="s">
         <v>11</v>
       </c>
-      <c r="G227" t="s">
-        <v>12</v>
-      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7120,13 +6620,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>125</v>
-      </c>
-      <c r="G228" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7146,13 +6644,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
-      </c>
-      <c r="G229" t="s">
-        <v>179</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7172,13 +6668,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>125</v>
-      </c>
-      <c r="G230" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7198,13 +6692,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>31</v>
-      </c>
-      <c r="G231" t="s">
-        <v>182</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7224,13 +6716,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>125</v>
-      </c>
-      <c r="G232" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7250,13 +6740,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>31</v>
-      </c>
-      <c r="G233" t="s">
-        <v>185</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7276,13 +6764,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>125</v>
-      </c>
-      <c r="G234" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7302,13 +6788,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>31</v>
-      </c>
-      <c r="G235" t="s">
-        <v>179</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7328,13 +6812,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>125</v>
-      </c>
-      <c r="G236" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7354,13 +6836,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>31</v>
-      </c>
-      <c r="G237" t="s">
-        <v>179</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7380,13 +6860,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>125</v>
-      </c>
-      <c r="G238" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7406,13 +6884,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
-      </c>
-      <c r="G239" t="s">
-        <v>179</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7432,13 +6908,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>125</v>
-      </c>
-      <c r="G240" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7458,13 +6932,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
-      </c>
-      <c r="G241" t="s">
-        <v>182</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7484,13 +6956,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>125</v>
-      </c>
-      <c r="G242" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7512,11 +6982,9 @@
       <c r="F243" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99436.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99436.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="289">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400373</t>
   </si>
   <si>
+    <t>Shimkus</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shimkus. The hearing will come to order, and I will recognize myself for 5 minutes for an opening statement.    Today's hearing on the disposal of low-level radioactive waste continues our detailed examination of what it takes to manage, store, and dispose of nuclear material.    Nuclear science and technologies take advantage of radiation and nuclear properties of the atom to perform many useful activities such as improving food safety, protecting our homeland, and providing for precise industrial production.     However, these invaluable technologies generate low-level radioactive waste which must be carefully managed and transported for disposal, even though it has a lower level of radioactivity and a shorter decay time than spent fuel from a nuclear power plant.    Additionally, as our fleet of nuclear power plants ages, more reactors must go through the decommissioning process. For example, the decommissioning plan for the Vermont Yankee plant will outlast the license for the West Texas facility where the low-level waste is currently planned to be sent.    Over 35 years ago, Congress passed the Low-Level Radioactive Waste Policy Act of 1980 to establish a system by which States would form regional compacts to have a consent-based siting process for low-level waste disposal facilities.    In 1985, after limited success in implementing the act, Congress had to amend the law to provide greater authority to host States. Ten compacts are in place today, 6 of which do not have an active disposal site, including the Central Midwest Compact, which is comprised of Illinois and Kentucky.    Eight States and the District of Columbia are not affiliated with a compact. Prior to 2008, the 6 compacts without a disposal site and the unaffiliated States had access to the Barnwell, South Carolina facility for Class B and C waste.    However, starting in 2008, the South Carolina legislature made a political decision and opted to allow access only to members of the Atlantic Compact. As we will hear today, that left a significant portion of the country without a disposal pathway for Class B and C waste until 2012, when the Texas Compact opened for business, the only facility to open as a result of the Low-Level Waste Policy Act.    While Texas is currently filling a national need, political considerations could once again shift and force States to store material onsite until a new facility is located, licensed, and accepting waste.    It is important for Congress to provide oversight of low-level waste policy to make sure States have uninterrupted access to a disposal site. While compacts must address commercially generated low-level waste, the Department of Energy must manage the low-level waste generated by its research activities and the nuclear enterprise. DOE works with the communities around the Nation to assure safe management and permanent disposal.    Today we will hear how DOE can improve its engagement to assure those communities are heard and a part of the process. Additionally, the Federal Government is responsible for disposing of greater-than-Class C waste, or GTCC, which is more hazardous than other classes of low-level waste.    The Nuclear Regulatory Commission requires that GTCC waste be disposed of in a geologic repository. In 2005, Congress directed DOE to examine disposal options for GTCC waste and to make recommendations to Congress.    Congress has not yet received any GTCC recommendations. However, DOE walked away from the most practical disposal pathway for GTCC waste when President Obama quit work on the Yucca Mountain project.    The longer DOE puts off its recommendation, the longer this material must remain onsite in temporary storage instead of in a permanent disposal repository.    The sole geologic repository that has been in operation for the Federal Government to dispose of radioactive waste is the Waste Isolation Pilot Project, or WIPP.    In 2014, WIPP experienced an incident that closed the facility. I am interested in hearing from DOE how this incident has had repercussions in the Federal Government's waste management strategy.    Today's hearing will inform this committee's efforts to advance a comprehensive policy to manage spent nuclear fuel and high-level waste.    Let us look closely at the experience of siting low-level waste repositories and how the Federal Government engages States and local communities in the decision making process.    The Department of Energy carefully and constructively engaged with the State of Nevada to provide for a mixed-level waste disposal site at the Nevada National Security Site adjacent to Yucca Mountain.    We should consider how these conversations between the Federal Government and Nevada can continue to advance the development of a deep, geologic repository for used fuel.    Thank you again to our witnesses, and I look forward to your testimony this morning.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412319</t>
   </si>
   <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair, and thank you to our witnesses and good morning.    We are here this morning to hear about the status of facilities and programs to dispose of low-level radioactive waste. Low-level radioactive waste includes a wide variety of materials that have become radioactive or that were contaminated by exposure to radioactive substances.    It includes cleaning items, protective equipment and medical waste, materials used in research and equipment and tools, among various other items.    The amounts of waste generated vary considerably from year to year but the volumes are significant. These materials are disposed of at three commercially operated sites here in the United States. The sites are regulated by the Nuclear Regulatory Commission.    States are responsible for the waste generated within their borders. However, groups of States have entered into compacts or other agreements that allow some to dispose of waste in one of the three existing facilities.    These are not the sites that can or will accept spent fuel from nuclear reactors. We have benefitted from our research and applications in nuclear medicine and nuclear power but these have come at a high cost.    Projections for many of the DOE-managed sites are that it will be decades before cleanup and decontamination are completed at costs in the billions of dollars.    We are fortunate to have Mark Whitney of the Department of Energy and Michael Weber of the Nuclear Regulatory Commission here with us this morning on the first panel. Again, welcome.    Thank you both for being here this morning to testify on the important work that you are doing to ensure these materials are handled and disposed of properly. We also have an excellent group of witnesses on our second panel.    On our second panel, we will hear from Mr. Chuck Smith, the chair of the Energy Communities Alliance. Mr. Smith represents the communities that live nearby contaminated sites and deal with the issues of nuclear waste cleanup and disposal on a daily basis.    Mr. Smith offers some interesting ideas for speeding cleanups and reducing cleanup costs. I agree that we should be looking at all options for nuclear waste disposal in an effort to find the safest and most cost effective ways to move forward.    We must recognize and deal with both the technical and political challenges of disposing of all classes of nuclear waste.    In addition to Mr. Smith, we will have the benefit of testimony from Ms. Leigh Ing and Ms. Jennifer Opila to provide perspectives of different State organizations responsible for these issues.    More than 60 years after beginning and expanding our use of nuclear materials, nuclear waste disposal remains a difficult and expensive problem.    The large volumes of waste generated, the high cost of treatment and disposal and the limited locations willing to host disposal facilities for any type of waste generated considerable or generate considerable an ongoing public concern and resistance.    Until we find better solutions for this problem, further development of nuclear power will be seriously constrained. So I thank you all for your participation this morning at the hearing. I look forward to your testimony and further discussion of these important issues.    With that, I yield back, Mr. Chair.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>400414</t>
   </si>
   <si>
+    <t>Upton</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Upton. Thank you, Mr. Chairman.    Nuclear technology is deployed throughout our economy in a variety of different ways. For example, radioactive monitors accurately map subsurface geology to assist the U.S. efforts to capitalize on the oil and gas renaissance.    Nuclear medicine provides medical treatments that save thousands and thousands of lives and this technology will only grow and advance with the research and innovation that the 21st Century Cures Act will spawn.    However, all of these activities generate low-level radioactive waste, which must be properly managed, transported and disposed. Congress provided this responsibility to the States, which were to form interstate compacts to collaborate to site a disposal facility.    However, not all States joined compacts, including my home State of Michigan. There is currently only one available disposal site, located in Texas, for noncompact States.    I am pleased to welcome the Texas Low-Level Radioactive Waste Disposal Compact Commission this morning to understand how this compact is operating and to learn how they intend to dispose of the Nation's low-level waste.    In the years since Congress passed the Low-Level Radioactive Waste Policy Act of 1980, we have struggled to develop the system that Congress envisioned. Today, Canada, our neighbor in the Great Lakes region, is facing a similar challenge.    Our experience addressing permanent disposal of nuclear material may offer some lessons learned from Canada. I am hopeful that today's hearing will serve to inform this committee about ongoing challenges and opportunities in managing nuclear waste.    I also want to briefly comment on the markup that we are going to have immediately following the hearing. At last week's hearing, members discussed moving S. 611 without amendment so that we can put it on a fast track to enactment.    By unanimously passing S. 611, the Senate has given us a rare opportunity. We can do our part to help this reauthorization become law if we can all agree to approve the bill exactly as it passed the Senate so that if the House passes it, it will go directly to the President for signature.    Many smaller and rural communities across the U.S. including many in Michigan face significant challenges in replacing, maintaining and upgrading their aging water infrastructure. It is in every community.    It is also clear that many of our constituents responsible for managing small rural drinking systems do support S. 611 as well.    Many of us have discussed various ideas to improve the Safe Drinking Water Act, from addressing the State Revolving Fund to developing statutory flexibility for small systems to meet the growing technical challenges of complying with changing drinking water standards.    The bill before us today would help communities across Michigan and across the country manage increased costs and the burden of meeting complex regulatory requirements under the Safe Water Drinking Act.    So we want to make law in this area. Our best chance to do it is to take this bill, pass it without any hitches. I urge all members to support it.    I yield back.</t>
   </si>
   <si>
@@ -79,6 +100,12 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you.    Unfortunately, there is a great deal of low-level nuclear waste generated in this country from a variety of source and those sources include not just activities at commercial nuclear reactors but also manufacturing plants, academic institutions and medical facilities and, of course, it also comes from Government activities including the cleanup of Department of Energy sites.    So having a number of safe, secure and environmentally sound options for disposal of low-level radioactive waste is important to a lot of stakeholders.    But it is also critically important for our local communities that once hosted facilities central to our national security yet continue to live with low-level and other radioactive waste even after those facilities close their doors.    The Low-Level Radioactive Waste Policy Amendment Acts of 1985 gave each State responsibility for disposing of low-level radioactive waste generated within its borders.    In doing so, it encouraged States to enter into interstate compacts so that a group of States could agree to develop a common site to dispose of their waste and to date 10 regional compacts have been formed while 8 States, Puerto Rico, and the District of Columbia remain unaffiliated.    Unfortunately, however, the track record of these sites hasn't been entirely successful. Environmental justice concerns halted a number of early efforts to site facilities in poor communities that did not desire to have them.    And so while numerous compacts were formed, only 4 are home to disposal facilities and as a result those facilities have become the de facto sites now accepting waste from a variety of other compacts in individual States.    And while that solution is currently working, I believe we need a more rational predictable policy going forward and we need to do that in a way that addresses the concerns of the communities that are home to radioactive waste generated as a result of activities that benefit us all.    Mr. Chairman, I am very interested to learn more about DOE's efforts to clean up and dispose of waste generated from its activities, particularly with regard to disposal of the most dangerous low-level radioactive waste, the greater-than-Class C waste.    I understand that the Department is working to complete a final evaluation of the potential environmental impacts associated with the proposed development of a disposal facility or facilities for greater-than-Class C and other similar waste.    I am also interested in hearing about the Nuclear Regulatory Commission's recent activities in this area. It is my understanding that NRC is currently in the process of updating its regulations regarding the disposal of low-level waste to a more risk-based system that will better align disposal requirements with current health and safety standards.    I also would like to learn more about the July 2015 NRC staff paper recommending that the commission allow the State of Texas to license the disposal of greater-than-Class C waste.    While I take no position on the Texas issue, I do think that the NRC process is important. If the commissioners are confident that Texas can license and manage a program that includes the most dangerous low-level waste then this opens up a real potential for benefit to communities around the country and it would also serve as a step on the road to considering the siting of facilities to dispose of material that pose risks greater than low-level waste.</t>
   </si>
   <si>
@@ -88,6 +115,12 @@
     <t>412189</t>
   </si>
   <si>
+    <t>McNerney</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McNerney. I thank the ranking member, and I thank the chairman for holding this important hearing.    Low-level nuclear waste may not be as dangerous as high-level nuclear waste but it is still a risk and people are justifiably concerned about that risk.    There are engineering solutions that would allow us to find disposal sites, to transport nuclear materials for those disposal sites and there is an urgency to this problem.    But the real challenge is the politics. In order to get this accepted we have to be transparent. We have to let the public know what the risks are and what benefits there might be to local communities.    We need to let them buy into it because if we try to enforce nuclear waste on any communities it is not going to work. So I urge that we develop a system that is very transparent, that is very public friendly and I think if we do that we will be able to find a solution.    So with that, I will yield back.</t>
   </si>
   <si>
@@ -97,12 +130,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Whitney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Whitney. Thank you, sir.    Good morning, Chairman Shimkus, Ranking Member Tonko and members of the subcommittee. I do appreciate the opportunity to be here with you today to discuss the Office of Environmental Management's activities to safely and properly dispose of DOE-generated low-level radioactive waste and our ongoing planning efforts for disposal of greater-than-Class C low-level radioactive waste.    First, let me state that safe performance of our work is our overarching priority. The Department's first responsibility is to protect our workers, the public and environment during our cleanup mission.    Safety first is the clear expectation for every activity that we undertake in implementing that mission. The Department of Energy is the largest generator of low-level radioactive waste by volume in the Nation with most waste derived from the Office of Environmental Management's cleanup efforts.    Since 2005, the Department has safely disposed of over 330 million cubic feet of low-level radioactive waste. The overwhelming majority of the Department's low-level radioactive waste is disposed of on the site where generated.    In fiscal year 2014, 23 million cubic feet of mixed and low-level radioactive waste were disposed of at the site where generated.    The Department sites that have the capability to dispose of all or a portion of their onsite-generated waste include the Hanford site, the Idaho site, the Los Alamos National Laboratory, which has limited capability, the Nevada National Security Site, Savannah River Site and the Oak Ridge Reservation.    In fiscal year 2015, a decision was made to construct a future new disposal facility for decommissioning and remediation waste at the Portsmouth Gaseous Diffusion Plant and similarly the Department is continuing to evaluate options for similar waste disposal onsite at the Paducah Gaseous Diffusion Plant.    The Department of Energy sites without an onsite disposal facility mixed and low-level radioactive waste may be disposed of at the Department's regional disposal site.    At present time, the Nevada National Security Site remains the Department's only regional disposal site available to serve the needs of the Department's cleanup complex.    Commercial firms also provide each of the Department sites with options for mixed and low-level radioactive waste disposal. The Department's policy is generally not to utilize the commercial disposal facilities operated by the regional disposal compacts.    However, when compliant, cost effective and in the best interest of the Government and after formal approval process the Department may utilize commercial disposal firms.    Finally, I would like to provide you with an update on where the Department of Energy is with the disposal of greater-than-Class C low-level radioactive waste, GTCC.    The Department is currently finalizing the final environmental impact statement for the disposal of GTCC waste and GTCC-like waste.    The final environmental EIS will evaluate the potential impacts associated with the proposed development, operation and long-term management of a disposal facility or facilities for GTCC low-level radioactive waste and GTCC-like waste.    GTCC-like waste is radioactive waste that is owned or generated by DOE and has characteristics similar to those of GTCC waste such that a common disposal approach may be appropriate.    The Department plans to identify a preferred alternative in the final environmental impact statement. In developing the final EIS, the Department will have considered public comments on the draft GTCC EIS, human health, disposal methods and waste types.    The Department anticipates publication of the final environmental impact statement within the next quarter. After the publication of the final environmental impact statement the Department will submit a report to Congress as required by the Energy Policy Act of 2005.    The report to Congress will include a description of the disposal alternatives considered in the final environmental impact statement and must await action by Congress.    Congressional action would enable the Department to proceed with issuing a record of decision on greater-than-Class C low-level radioactive waste disposal.    The Department is eager to work with members of Congress on the path forward for GTCC low-level radioactive waste and GTCC-like waste disposal.    Thank you again for the opportunity to discuss the Department's low-level radioactive waste disposal activities.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much.    Now, I will turn to Mr. Michael Weber, deputy executive director of operations for materials, waste, research date and compliance program with the Nuclear Regulatory Commission.    Again, your full statement is in the record. You have 5 minutes. Welcome.</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weber. Good morning, Chairman Shimkus, Vice Chairman Harper, and Ranking Member Tonko, and distinguished members of the subcommittee and the committee.    I appreciate the opportunity to testify this morning on the U.S. Nuclear Regulatory Commission's regulation of low-level radioactive waste.    In my testimony I will highlight, one, NRC's regulatory role working in partnership with the States, two, the current regulatory framework, and three, two current regulatory improvement initiatives.    Since the Congress established the Nuclear Regulatory Commission in 1975, the agency has worked with our State partners to ensure protection of the public health and safety associated with low-level waste management.    This waste is generated by thousands of industrial, academic, medical, and Government licensees across the United States. Disposal of the waste is permitted in 4 operating facilities and the importance of the safe management of commercial low-level waste has long been a matter of congressional interest.    In 1980, the Congress enacted the Low-Level Radioactive Waste Policy Act and amended it in 1985. Under the Atomic Energy Act of 1954, the NRC regulates the safety and security of the generation, storage, transportation and disposal of commercial low-level waste.    Pursuant to the law, the NRC has relinquished its licensing and enforcement authority over most nuclear materials in 37 States that have entered an agreement with the NRC--so-called agreement States.    An agreement State conducts the regulatory programs that are adequate and compatible with the NRC regulatory requirements and oversees agreement State programs.    The four commercial low-level waste disposal facilities and more than 85 percent of the licensees that generate low-level waste are regulated by the agreement States.    The NRC and agreement States have established a comprehensive regulatory framework that ensures the safety of low-level waste management.    Among the regulations the NRC has established, 10 CFR Part 61 contains the primary regulations governing the disposal of low-level waste.    The promulgation of Part 61 in 1982 was driven by some of the same factors that prompted the Congress to enact the Low-Level Radioactive Waste Policy Act of 1980, including the need to establish a stable regulatory regime to govern safe disposal of the waste.    The NRC is currently working to improve the regulations and the regulatory framework. Several years ago, the commission initiated development of a rule making proposal to improve Part 61 with respect to waste streams that were not contemplated at the time of the initial development of the rule in the late 1970s such as the disposal of significant quantities of depleted uranium waste.    On March 26th of this year, the commission published for public comment a proposed rule and associated draft guide and NRC solicited comments from the public and also conducted five public meetings in the vicinity of the operating disposal facilities.    The comment period for this proposed rule closed last month, September 21st. The NRC staff is currently analyzing public comments.    As we develop the final rule, we will continue to work closely with the agreement States and we expect to provide a draft rule for commission consideration in 2016.    The second initiative is the disposal of greater-than-Class C waste. This waste has concentration of radio nuclides that exceed the limits established by the NRC for Class C waste and is generally not therefore suitable for near surface disposal.    Congress assigned the responsibility for the disposal of this waste to the Federal Government and required that the waste be disposed of in a facility licensed by the Nuclear Regulatory Commission.    In 1989, the commission amended its regulations in Part 61 to require such waste be disposed of in a geologic repository or in an alternative disposal facility approved by the commission.    On January 30th, 2015, the State of Texas sent a letter to the NRC enquiring whether a State, as an agreement State, can regulate the disposal of this waste.    In July 2015, the NRC staff provided the commission with an analysis of the associated issues along with options and a recommendation that the NRC allow the State of Texas to regulate the disposal of the waste.    NRC also recommended that NRC conduct a rule making to establish regulatory requirements covering this waste and on August 13th, 2015 the commission held a public meeting with the staff, the State of Texas and stakeholders to discuss the issue and the commission is currently considering how best to proceed.    NRC believes its regulatory program adequately protects the public health and safety. We work with our agreement State partners to accomplish the safety mission.    I want to thank you for the opportunity to testify before you today and I would be pleased to respond to your questions.</t>
   </si>
   <si>
@@ -226,6 +265,12 @@
     <t>412280</t>
   </si>
   <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Gregg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman, and thanks to each of you for being here. This is an issue that is very important.    Obviously, we made--sometimes in the public when you hear low-level you let your guard down and don't realize that these are issues that are--have to be addressed and certainly we expect to figure out a way to cooperate and work together to achieve those goals, both with DOE and with the NRC.    And first, for you, Mr. Weber, if I could, the NRC, I know, is evaluating changes to its regulations affecting LLW disposal including Part 61 regulations--how low-level waste is classified and greater-than-Class C disposal pathways.    There appear to be areas of overlap and a precedence among these various initiatives.    Has the NRC conducted a high-level analysis to determine whether there should be more--a more comprehensive rule making or at least greater coordination of seemingly disparate activities? If not, why not?</t>
   </si>
   <si>
@@ -274,6 +319,12 @@
     <t>400160</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman, you and ranking member, for holding the hearings on low-level radioactive waste.    I would like to thank all our panelists for being here. I share concerns of many of the subcommittee that the Federal Government needs to move forward to find a suitable site for greater-than-Class C radioactive waste.    It is my hope that Department of Energy and NRC are taking all safe options under strong consideration in working with private sector and local communities to find a solution that is the best interest of all the impacted stakeholders.    Mr. Weber, on January 30th of 2015, the Texas Commission on Environmental Quality sent a letter to the NRC requesting responses to questions concerning the State of Texas' authority to license of disposal cell for the greater-than-Class C, GTCC-like and transuranic waste.    I understand that in July in a paper to the commission the NRC developed three options and recommended one of these options, Option two, in allowing the State of Texas to license and regulate the disposal of GTCC waste.    Is this correct?</t>
   </si>
   <si>
@@ -313,6 +364,12 @@
     <t>412427</t>
   </si>
   <si>
+    <t>Bucshon</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bucshon. Thank you, Mr. Chairman.    Mr. Whitney, the USEC Privatization Act assigned responsibility to the Department of Energy to dispose of depleted uranium, a byproduct of uranium enrichment.    Has the NRC worked with the DOE to develop a disposal pathway for depleted uranium?</t>
   </si>
   <si>
@@ -352,6 +409,12 @@
     <t>412480</t>
   </si>
   <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Flores. Thank you, Mr. Chairman.    I believe that Mr. Green asked most of my questions so I will pass at this point.</t>
   </si>
   <si>
@@ -361,6 +424,12 @@
     <t>400320</t>
   </si>
   <si>
+    <t>Pitts</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pitts. Mr. Weber, as a part of the public comment process for NRC's revisions to Part 61 regulations--the governmental low-level waste disposal facility--the agreement States requested that NRC revise the compatibility requirements from what is known as compatibility B, which require agreement States to have the same regulatory standards as NRC, to compatibility C, which permit agreement States to have more stringent regulatory standards than NRC regs.    Will the NRC staff address this issue as part of the rule making process prior to providing the rule to the commission for approval?</t>
   </si>
   <si>
@@ -454,6 +523,9 @@
     <t>412460</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman, and gentlemen, thank you for being with us today.    Mr. Whitney, I want to build upon the conversation that we began last time you testified in September.    As you might remember, we discussed the importance of the decontamination and the decommissioning work at the former Gaseous Diffusion Plant at Piketon, Ohio.    Astonishingly, DOE has recently decided to terminate funding for the American Centrifuge Project also located at Piketon.    If DOE doesn't soon reverse its decision, we are about to add to the price tag of that D&amp;D work because that facility there will have to be dealt with, which DOE already attempts to under fund year after year.    So that D&amp;D work is--it is a battle each and every year, it seems, to get DOE to put the appropriate amount of money towards it.    DOE's own analysis has confirmed that the ACPs-- AC100 centrifuge technology will be needed to meet our national security enrichment needs in as little as 10 years.    So allowing the ACP, currently our only domestic enrichment capability to shutter its operations now only require--only to require its inevitable remobilisation shortly thereafter seems to me is a severe mismanagement of Federal resources and an ill-advised decision because rehiring of this uniquely skilled workforce and its overall remobilisation will prove costly.    So the national security optics and consequences of the ACP closure are both very troubling. So, Mr. Whitney, some questions.    Was the D&amp;D costs to dismantle the current Piketon AC100 facility--was that taken into consideration when DOE decided to cease ACP funding? Do you know if they contacted anyone in your department about that?</t>
   </si>
   <si>
@@ -514,16 +586,25 @@
     <t xml:space="preserve">    Mr. Shimkus. Chairman yields back his time.    Seeing no other members present, we would like to thank you for being here and answering our questions and your testimony, and with that we will excuse the first panel and seat the second.    So we will begin with the second panel. Thank you for coming. I will do similar as I did at first. I will just introduce you when it is your time and we want to welcome you here.    So first to speak to us is Ms. Jennifer Opila. Is that--Opila. All right.    Ms. Jennifer Opila, director, Organization of Agreement States. Thank you. Your full statement is in the record. You have 5 minutes.</t>
   </si>
   <si>
+    <t>Opila</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Opila. Thank you very much, Chairman, and Ranking Member Tonko, and distinguished members of the subcommittee.    I appreciate the opportunity to represent the Organization of Agreement States and discuss the OAS' views on low-level radioactive waste management with you.    The membership of OAS consists of State radiation control directors and staff from the 37 agreement States, who are responsible for the implementation of their respective agreement State programs.    Agreement States are those States that have entered into an effective regulatory discontinuance agreement with the Nuclear Regulatory Commission under subsection 274(b) of the Atomic Energy Act, the AEA.    The role of the agreement States is to regulate most types of radioactive material in accordance with the compatibility requirements, the AEA.    Under its own internal practices, the NRC periodically reviews the performance of each agreement State to assure compatibility with the NRC's regulatory standards.    The purpose of the OAS is to provide a mechanism for these agreement States to work with each other and with the NRC on regulatory issues associated with their respective agreements.    Throughout the years, both agreement States and nonagreement States have had the responsibility for implementing the Low-Level Radioactive Waste Policy Act.    As a result of the Low-Level Radioactive Waste Policy Act, States have formed compacts that have facilitated the safe disposal of radioactive waste.    At times, the compact system has been criticized because it has resulted in many States not having access to disposal facilities.    However, with the recent establishment of the Waste Control Specialist Facility in Texas, the establishment of the Texas Vermont Compact and that compact allowing access to the WCS facility from out of compact facilities, this situation has been largely resolved and that all States now have access to a waste disposal facility.    Additionally, the WCS facility has added much needed capacity to the overall low-level waste disposal inventory. The OAS board believes that the compact system should be maintained so that States can control the import and export of low-level radioactive waste within their jurisdiction.    Agreement States play a vital role in the regulation of low-level radioactive waste disposal in the United States. All four active low-level waste sites operate in the agreement States of Texas, Utah, South Carolina, and Washington.    It is these States, not the NRC, who have decades of experience in regulating low-level waste disposal. These States brought this experience to the recent discussions of changes to 10 CFR Part 61, the Federal rule regarding low-level radioactive waste disposal.    The purpose of this rule change was to consider the impacts resulting from the disposal of unique waste streams such as significant quantities of depleted uranium from the operation of a commercial uranium enrichment facility.    The OAS board has two primary objections to the current proposed amendments to Part 61. First, the board objects to redoing a sites performance assessment unless that site opts to take significant quantities of long-lived alpha emitters such as depleted uranium.    Sites that are not going to be accepting these unique waste streams do not need to conform to a performance assessment process that is designed specifically for those unique waste streams.    Importantly, performance assessments addressing the disposal of significant quantities of depleted uranium for two of the existing low-level waste disposal facilities have either been completed or will soon be completed.    Second, the board proposes compatibility C designation instead of compatibility B designation, as currently proposed by the NRC for the new requirements of Part 61.    Many States that regulate low-level radioactive waste sites currently have State standards that are more stringent than the requirements in the proposed rule.    These States should not be forced to weaken their standards to conform to the new NRC rules. Compatibility C designation would allow these States to implement standards that are acceptable to the State and the communities that host these disposal facilities as long as those standards are at least as stringent as the NRC standards.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much.    Next, I would like to turn to Ms. Leigh Ing, executive director of Texas Low-Level Radioactive Waste Disposal Compact Commission.    You are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Ing</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ing. Thank you very much and thank you for the opportunity to provide testimony, Chairman Shimkus and Ranking Member Tonko. I will be providing testimony today on low-level radioactive waste compacts, in particular my compact, Texas and Vermont.    As you are well aware, low-level compacts are agreements between two or more States in which one of the States becomes the host State by providing a disposal facility.    The remaining States in that compact are guaranteed access to low-level radioactive waste to that disposal facility. Currently, we have 10 compacts that have been established in this country, 3 of which have disposal facilities.    We have the Richland facility in the Northwest Compact that includes the States around Washington as well as Hawaii and Alaska, and that facility can take Class A, B, and C waste.    We also have the Clive facility in Utah, which is open to all States but it can take only Class A. We also have the Barnwell facility in South Carolina that can take waste from South Carolina, New Jersey and Connecticut.    And then we have my compact, the Texas and Vermont compact, which includes only the State of Texas and Vermont, which guarantees access to all low-level waste generated in Texas and in Vermont.    One of the things unique about my compact is that--and there is the map that has all of the compacts and you can see where I have--we have a facility in the corner of Texas and there are stars where there are facilities that can take low-level radioactive waste in our compact.    [The information appears with Ms. Ing's prepared statement.]    One of the things that is unique about my compact is that the State of Texas has passed a statute which allows our compact to accept imports from all the other States, the District of Columbia and territories up to a limit of 275,000 curies per year.    The role--the very important role of my compact which is composed of eight voting members and one alternative, six of those members are put in place by the Governor of Texas. Two, in the alternate, are put in place by the Governor of Vermont.    One of my Texas commissioners by my compact law is required to be a representative of the local community. What that commission does is we take a look at all generators or brokers who may choose to import to our facility and make sure that the applications to import meet all of the criteria for import into our compact.    We also work with the State of Texas to ensure that the waste coming in is acceptable to the owner of the site, the State of Texas. We meet about--approximately every six weeks to approve all of these that we deem are approvable. To date, we have approved almost a hundred import applications that represent imports from 40 States and from Puerto Rico as well as from the District of Columbia.    Overall, we regard what we have been doing has been very successful. It has been a learning process for us. We are the first compact that takes imports this way and learning how generators and brokers work and how our fellow compacts work is that we can work collegiately with our compacts had been a very good process.    But we have been learning and tweaking our process as we learn more.    I would say there are three very important points to make that we have learned through this process. One, because of our facility in the Andrews area, we now have access--in concert with our other facilities we have access to all 50 States, the District of Columbia, and territories in this country for low-level radioactive waste as a result of the compact system as put forth by the Low-Level Waste Policy Act.    Although it may not have been implemented exactly as intended, we do now have waste capacity for everywhere in the United States. The other thing that I think is important to point out is that one of the reasons we have this is because the compacts can exclude waste outside of the compact if it chooses to do so, as was done by the Atlantic compact and was done by the Northwest Compact. That can also be done in ours.    But currently, given how imports assist the country and assist the viability of our facility, and the State of Texas and locals also get fees from that, there is not direction that has been put forward to limit that at this time.    The third and final point I will make is that my commissioners unanimously believe it is important to have a disposal pathway and to do everything in our process and working with generators and brokers to make that pathway available so that as opposed to being stored it is disposed of up to 275,000 curies per year at the facility.    And that concludes my remarks. Thank you very much for allowing me to provide testimony today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. You are welcome. We are happy to have you here.    Next, I would like to turn to Mr. Chuck Smith, council member of Aiken County--I visited in Aiken County just last spring--South Carolina, chairman of the Energy Community Alliance.    So welcome. You are recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>Smith</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Chairman Shimkus, Ranking Member Tonko and members of the subcommittee. Thank you for inviting me to testify today.    Again, I am Chuck Smith, council member from Aiken County, South Carolina. I am a board member of the Savannah River Site community reuse organization and chairman of Energy Communities Alliance, the association of local communities that are adjacent to, impacted by or supporting DOE activities.    Our communities have long played a key role in supporting the country's national security efforts, hosting these facilities with the understanding that the waste would ultimately be disposed of in a safe and timely manner.    ECA understands that nuclear waste disposition presents many challenges, often more political than technical, and as you are well aware the development of a geological repository has not proceeded as planned and which is currently receiving waste.    Therefore, there are waste streams in our communities that still have no clear disposal path and we remain de factor nuclear waste storage sites.    Today, I would like to make three recommendations. First, ECA urges Congress to consider feasible alternatives to move waste out of our community safely, beginning with classifying waste based on its composition, not just by where it originated.    This would allow the country to move forward properly, safely and scientifically to dispose of radioactive waste and save taxpayers millions of dollars, and we think it just makes sense.    ECA believes that changing the way the United States classifies waste can provide additional safe publically acceptable disposable alternatives, leading to lower Federal and taxpayers cost for storage and less risk to human health and the environment.    Our radioactive waste classification system currently relies primarily on point of origin rather than composition, with specific hazards posed by its disposal.    This approach has many deficiencies. It can be misleading. Some waste classified as low-level waste can be more long lived and pose a higher risk than others labelled high-level or transuranic.    It could be inconsistent. Low-level waste is defined by exclusion whereas high-level waste is defined by its source. It can also be vague as is the case with the existing definition for high-level waste, which states the waste must contain fission products in sufficient concentrations.    This does not adequately address the current state of defense high-level waste, some of which could technically qualify as transuranic waste if based on its radioactive material content. Only the U.S. classifies nuclear waste this way.    ECA recommends that NRC and DOE work together to consider this option. Many stakeholders feel that NRC and DOE already have the existing authority to make the change.    ECA is looking to Congress to implement a change immediately through legislation. ECA's multi community task force has drafted proposed language for congressional consideration and we have shared this with your staff.    For greater-than-Class C waste disposal in a geologic repository is the only method currently approved by the NRC. In its absence, greater-than-Class C and greater-than-Class C-like waste which includes waste from DOE cleanup programs, has no disposal path.    As the Savannah River Site community reuse organization specifically noted in a 2011 letter to DOE, this waste is considered orphaned and they do not support Savannah River Site as a potential candidate for its disposal.    As a board member of the SRS CRO, we follow the community's guiding principle which is no waste or excess material shall be brought into South Carolina unless and improved and funded pathway exists for processing a shipment to either a customer or an out-of-State waste disposal facility and clarifying waste definitions would be helpful in identifying those disposal paths.    Number two, ECA recommends that full consideration be given--support be given to communities and States interested in providing alternative storage and disposal options as part of a consent-based process.    Greater-than-Class C and greater-than-Class C-like waste is essentially the same as remote handled transuranic waste from the defense sector, which is already exposed of at WIPP near Carlsbad, New Mexico.    The local communities there are knowledgeable on these issues and supportive of the cleanup efforts. If DOE and NRC determine this alternative is safe, secure and reliable, if legislation is passed to allow WIPP to accept the commercial waste as well as the defense waste it already takes, if the necessary regulatory changes are made and resources are provided for outreach and education to ensure the impacted communities in the State understand the potential risk and benefits and approve, WIPP could take appropriate classified transuranic waste as well as a small amount of commercial greater-than-Class C waste.    This could result in more room for high-level waste and spent nuclear fuel in Yucca Mountain or any other geological repository.    As you are well aware, Yucca Mountain is considered full before it even opens. I should also mention the efforts by the State of Texas to license a disposal cell for greater thank Class C and greater-than-Class C-like waste or transuranic waste.    Waste control specialists has a proven track record for safe disposal of low-level waste in Texas. They work closely with the surrounding communities and they too are interested in taking the waste.    Nye County also supports the inclusion of Yucca Mountain as an alternative for disposal of greater-than-Class C waste. However, DOE took it off the table in its draft EIS prior to the resolution of the regulatory and legal issues.    This was due in large part to the administration's determination that Yucca Mountain is not a workable option and suspension of its licensing activities with the NRC.    And lastly, the public must have the opportunity to formally comment on any preferred alternative in pursuit of a consent-based process.    ECA looks forward to reviewing DOE's final greater-than-Class C EIS when it is released. However, as impacted communities we stress that the public must have an opportunity to formally comment on DOE's preferred alternative, especially as we move towards implementing a consent-based process.    This needs to happen even if DOE will have to delay its recommendation to Congress and any record of decision while they take public input into account.    In closing, there are options and the Federal Government needs to give serious consideration to all safe alternatives. Doing so may allow us to overcome stalemates, build momentum and implement a comprehensive strategy that will get waste moving out of our communities as safely and expeditiously as possible.    Again, I want to thank you for the opportunity to present this testimony to you today.</t>
@@ -1148,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H243"/>
+  <dimension ref="A1:I243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,7 +1237,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1178,5813 +1259,6820 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
       <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G50" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G55" t="s">
+        <v>83</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G56" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G57" t="s">
+        <v>83</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G59" t="s">
+        <v>83</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G61" t="s">
+        <v>83</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>69</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G63" t="s">
+        <v>83</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G64" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>69</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G65" t="s">
+        <v>83</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>69</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G67" t="s">
+        <v>83</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G69" t="s">
+        <v>38</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G71" t="s">
+        <v>101</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G72" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G73" t="s">
+        <v>101</v>
+      </c>
       <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G74" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>85</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G75" t="s">
+        <v>101</v>
+      </c>
       <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G76" t="s">
+        <v>41</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>85</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G77" t="s">
+        <v>101</v>
+      </c>
       <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G78" t="s">
+        <v>41</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>85</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G79" t="s">
+        <v>101</v>
+      </c>
       <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>85</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G81" t="s">
+        <v>101</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G83" t="s">
+        <v>116</v>
+      </c>
       <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G84" t="s">
+        <v>38</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>98</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G85" t="s">
+        <v>116</v>
+      </c>
       <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G86" t="s">
+        <v>38</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G87" t="s">
+        <v>116</v>
+      </c>
       <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G88" t="s">
+        <v>38</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G89" t="s">
+        <v>116</v>
+      </c>
       <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G90" t="s">
+        <v>38</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>98</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G91" t="s">
+        <v>116</v>
+      </c>
       <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G92" t="s">
+        <v>38</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>98</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G93" t="s">
+        <v>116</v>
+      </c>
       <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>111</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G95" t="s">
+        <v>131</v>
+      </c>
       <c r="H95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G97" t="s">
+        <v>136</v>
+      </c>
       <c r="H97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G98" t="s">
+        <v>41</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>114</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G99" t="s">
+        <v>136</v>
+      </c>
       <c r="H99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G100" t="s">
+        <v>38</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>114</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G101" t="s">
+        <v>136</v>
+      </c>
       <c r="H101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G102" t="s">
+        <v>38</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>114</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G103" t="s">
+        <v>136</v>
+      </c>
       <c r="H103" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>26</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G104" t="s">
+        <v>41</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>114</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G105" t="s">
+        <v>136</v>
+      </c>
       <c r="H105" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>26</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G106" t="s">
+        <v>41</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G107" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>114</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G108" t="s">
+        <v>136</v>
+      </c>
       <c r="H108" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I108" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G109" t="s">
+        <v>41</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>114</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G110" t="s">
+        <v>136</v>
+      </c>
       <c r="H110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I110" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G111" t="s">
+        <v>38</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>114</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G112" t="s">
+        <v>136</v>
+      </c>
       <c r="H112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I112" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G113" t="s">
+        <v>38</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>114</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G114" t="s">
+        <v>136</v>
+      </c>
       <c r="H114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G115" t="s">
+        <v>41</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>114</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G116" t="s">
+        <v>136</v>
+      </c>
       <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G118" t="s">
+        <v>28</v>
+      </c>
       <c r="H118" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G119" t="s">
+        <v>38</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G120" t="s">
+        <v>28</v>
+      </c>
       <c r="H120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G121" t="s">
+        <v>41</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G122" t="s">
+        <v>28</v>
+      </c>
       <c r="H122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G123" t="s">
+        <v>38</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G124" t="s">
+        <v>28</v>
+      </c>
       <c r="H124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I124" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>26</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G125" t="s">
+        <v>41</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G126" t="s">
+        <v>28</v>
+      </c>
       <c r="H126" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
       <c r="H127" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>145</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G128" t="s">
+        <v>169</v>
+      </c>
       <c r="H128" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>26</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G129" t="s">
+        <v>38</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>145</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G130" t="s">
+        <v>169</v>
+      </c>
       <c r="H130" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I130" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G131" t="s">
+        <v>38</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>145</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G132" t="s">
+        <v>169</v>
+      </c>
       <c r="H132" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I132" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>26</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G133" t="s">
+        <v>38</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>145</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G134" t="s">
+        <v>169</v>
+      </c>
       <c r="H134" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I134" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>26</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G135" t="s">
+        <v>38</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>145</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G136" t="s">
+        <v>169</v>
+      </c>
       <c r="H136" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I136" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>26</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G137" t="s">
+        <v>38</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>145</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G138" t="s">
+        <v>169</v>
+      </c>
       <c r="H138" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I138" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>26</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G139" t="s">
+        <v>38</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>145</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G140" t="s">
+        <v>169</v>
+      </c>
       <c r="H140" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I140" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G141" t="s">
+        <v>38</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>145</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G142" t="s">
+        <v>169</v>
+      </c>
       <c r="H142" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I142" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>26</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G143" t="s">
+        <v>38</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>145</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G144" t="s">
+        <v>169</v>
+      </c>
       <c r="H144" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I144" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>26</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G145" t="s">
+        <v>38</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>145</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G146" t="s">
+        <v>169</v>
+      </c>
       <c r="H146" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I146" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
       <c r="H147" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>26</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G148" t="s">
+        <v>190</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
       <c r="H149" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>26</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G150" t="s">
+        <v>193</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
       <c r="H151" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G152" t="s">
+        <v>196</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
       <c r="H153" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>26</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G154" t="s">
+        <v>193</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
       <c r="H155" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>26</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G156" t="s">
+        <v>193</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
       <c r="H157" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>26</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G158" t="s">
+        <v>193</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
       <c r="H159" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>26</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G160" t="s">
+        <v>196</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
       <c r="H161" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>26</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G162" t="s">
+        <v>196</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
       <c r="H163" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>26</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G164" t="s">
+        <v>196</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
       <c r="H165" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>26</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G166" t="s">
+        <v>190</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
       <c r="H167" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>26</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G168" t="s">
+        <v>190</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
       <c r="H169" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>26</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G170" t="s">
+        <v>190</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
       <c r="H171" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G172" t="s">
+        <v>18</v>
+      </c>
       <c r="H172" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I172" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>26</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G173" t="s">
+        <v>196</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G174" t="s">
+        <v>18</v>
+      </c>
       <c r="H174" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I174" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>26</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G175" t="s">
+        <v>190</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G176" t="s">
+        <v>18</v>
+      </c>
       <c r="H176" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I176" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>26</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G177" t="s">
+        <v>190</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G178" t="s">
+        <v>18</v>
+      </c>
       <c r="H178" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I178" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>26</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G179" t="s">
+        <v>193</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G180" t="s">
+        <v>18</v>
+      </c>
       <c r="H180" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I180" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>26</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G181" t="s">
+        <v>196</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G182" t="s">
+        <v>18</v>
+      </c>
       <c r="H182" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I182" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>26</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G183" t="s">
+        <v>196</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G184" t="s">
+        <v>18</v>
+      </c>
       <c r="H184" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I184" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>26</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G185" t="s">
+        <v>196</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>14</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G186" t="s">
+        <v>18</v>
+      </c>
       <c r="H186" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I186" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>26</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G187" t="s">
+        <v>196</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G188" t="s">
+        <v>18</v>
+      </c>
       <c r="H188" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I188" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>26</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G189" t="s">
+        <v>196</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>14</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G190" t="s">
+        <v>18</v>
+      </c>
       <c r="H190" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I190" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>26</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G191" t="s">
+        <v>196</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>14</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G192" t="s">
+        <v>18</v>
+      </c>
       <c r="H192" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I192" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>26</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G193" t="s">
+        <v>196</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G194" t="s">
+        <v>18</v>
+      </c>
       <c r="H194" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I194" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
       <c r="H195" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I195" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>111</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G196" t="s">
+        <v>131</v>
+      </c>
       <c r="H196" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I196" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>26</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G197" t="s">
+        <v>193</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>111</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G198" t="s">
+        <v>131</v>
+      </c>
       <c r="H198" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I198" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>26</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G199" t="s">
+        <v>193</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>111</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G200" t="s">
+        <v>131</v>
+      </c>
       <c r="H200" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I200" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>26</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G201" t="s">
+        <v>193</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>111</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G202" t="s">
+        <v>131</v>
+      </c>
       <c r="H202" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I202" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G203" t="s">
+        <v>13</v>
+      </c>
       <c r="H203" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>111</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G204" t="s">
+        <v>131</v>
+      </c>
       <c r="H204" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I204" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>11</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G205" t="s">
+        <v>13</v>
+      </c>
       <c r="H205" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I205" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>26</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G206" t="s">
+        <v>196</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
       <c r="H207" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I207" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>26</v>
-      </c>
-      <c r="G208" t="s"/>
-      <c r="H208" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G208" t="s">
+        <v>196</v>
+      </c>
+      <c r="H208" t="s"/>
+      <c r="I208" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>11</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G209" t="s">
+        <v>13</v>
+      </c>
       <c r="H209" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I209" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>26</v>
-      </c>
-      <c r="G210" t="s"/>
-      <c r="H210" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G210" t="s">
+        <v>196</v>
+      </c>
+      <c r="H210" t="s"/>
+      <c r="I210" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>11</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G211" t="s">
+        <v>13</v>
+      </c>
       <c r="H211" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I211" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>26</v>
-      </c>
-      <c r="G212" t="s"/>
-      <c r="H212" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G212" t="s">
+        <v>196</v>
+      </c>
+      <c r="H212" t="s"/>
+      <c r="I212" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>11</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G213" t="s">
+        <v>13</v>
+      </c>
       <c r="H213" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I213" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>26</v>
-      </c>
-      <c r="G214" t="s"/>
-      <c r="H214" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G214" t="s">
+        <v>196</v>
+      </c>
+      <c r="H214" t="s"/>
+      <c r="I214" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G215" t="s">
+        <v>13</v>
+      </c>
       <c r="H215" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I215" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>26</v>
-      </c>
-      <c r="G216" t="s"/>
-      <c r="H216" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G216" t="s">
+        <v>196</v>
+      </c>
+      <c r="H216" t="s"/>
+      <c r="I216" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G217" t="s">
+        <v>13</v>
+      </c>
       <c r="H217" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I217" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>26</v>
-      </c>
-      <c r="G218" t="s"/>
-      <c r="H218" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G218" t="s">
+        <v>196</v>
+      </c>
+      <c r="H218" t="s"/>
+      <c r="I218" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>11</v>
-      </c>
-      <c r="G219" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G219" t="s">
+        <v>13</v>
+      </c>
       <c r="H219" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I219" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>26</v>
-      </c>
-      <c r="G220" t="s"/>
-      <c r="H220" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G220" t="s">
+        <v>196</v>
+      </c>
+      <c r="H220" t="s"/>
+      <c r="I220" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>11</v>
-      </c>
-      <c r="G221" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G221" t="s">
+        <v>13</v>
+      </c>
       <c r="H221" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I221" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>26</v>
-      </c>
-      <c r="G222" t="s"/>
-      <c r="H222" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G222" t="s">
+        <v>196</v>
+      </c>
+      <c r="H222" t="s"/>
+      <c r="I222" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>11</v>
-      </c>
-      <c r="G223" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G223" t="s">
+        <v>13</v>
+      </c>
       <c r="H223" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I223" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>20</v>
-      </c>
-      <c r="G224" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G224" t="s">
+        <v>28</v>
+      </c>
       <c r="H224" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I224" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>26</v>
-      </c>
-      <c r="G225" t="s"/>
-      <c r="H225" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G225" t="s">
+        <v>193</v>
+      </c>
+      <c r="H225" t="s"/>
+      <c r="I225" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>20</v>
-      </c>
-      <c r="G226" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G226" t="s">
+        <v>28</v>
+      </c>
       <c r="H226" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I226" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>11</v>
-      </c>
-      <c r="G227" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G227" t="s">
+        <v>13</v>
+      </c>
       <c r="H227" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I227" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>114</v>
-      </c>
-      <c r="G228" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G228" t="s">
+        <v>136</v>
+      </c>
       <c r="H228" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I228" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>26</v>
-      </c>
-      <c r="G229" t="s"/>
-      <c r="H229" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G229" t="s">
+        <v>190</v>
+      </c>
+      <c r="H229" t="s"/>
+      <c r="I229" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>114</v>
-      </c>
-      <c r="G230" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G230" t="s">
+        <v>136</v>
+      </c>
       <c r="H230" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I230" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F231" t="s">
-        <v>26</v>
-      </c>
-      <c r="G231" t="s"/>
-      <c r="H231" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G231" t="s">
+        <v>193</v>
+      </c>
+      <c r="H231" t="s"/>
+      <c r="I231" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F232" t="s">
-        <v>114</v>
-      </c>
-      <c r="G232" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G232" t="s">
+        <v>136</v>
+      </c>
       <c r="H232" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I232" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F233" t="s">
-        <v>26</v>
-      </c>
-      <c r="G233" t="s"/>
-      <c r="H233" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G233" t="s">
+        <v>196</v>
+      </c>
+      <c r="H233" t="s"/>
+      <c r="I233" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F234" t="s">
-        <v>114</v>
-      </c>
-      <c r="G234" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G234" t="s">
+        <v>136</v>
+      </c>
       <c r="H234" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I234" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F235" t="s">
-        <v>26</v>
-      </c>
-      <c r="G235" t="s"/>
-      <c r="H235" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G235" t="s">
+        <v>190</v>
+      </c>
+      <c r="H235" t="s"/>
+      <c r="I235" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F236" t="s">
-        <v>114</v>
-      </c>
-      <c r="G236" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G236" t="s">
+        <v>136</v>
+      </c>
       <c r="H236" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I236" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F237" t="s">
-        <v>26</v>
-      </c>
-      <c r="G237" t="s"/>
-      <c r="H237" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G237" t="s">
+        <v>190</v>
+      </c>
+      <c r="H237" t="s"/>
+      <c r="I237" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E238" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F238" t="s">
-        <v>114</v>
-      </c>
-      <c r="G238" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G238" t="s">
+        <v>136</v>
+      </c>
       <c r="H238" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I238" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E239" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F239" t="s">
-        <v>26</v>
-      </c>
-      <c r="G239" t="s"/>
-      <c r="H239" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G239" t="s">
+        <v>190</v>
+      </c>
+      <c r="H239" t="s"/>
+      <c r="I239" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E240" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F240" t="s">
-        <v>114</v>
-      </c>
-      <c r="G240" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G240" t="s">
+        <v>136</v>
+      </c>
       <c r="H240" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I240" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E241" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F241" t="s">
-        <v>26</v>
-      </c>
-      <c r="G241" t="s"/>
-      <c r="H241" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G241" t="s">
+        <v>193</v>
+      </c>
+      <c r="H241" t="s"/>
+      <c r="I241" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E242" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F242" t="s">
-        <v>114</v>
-      </c>
-      <c r="G242" t="s"/>
+        <v>135</v>
+      </c>
+      <c r="G242" t="s">
+        <v>136</v>
+      </c>
       <c r="H242" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I242" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E243" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F243" t="s">
-        <v>11</v>
-      </c>
-      <c r="G243" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G243" t="s">
+        <v>13</v>
+      </c>
       <c r="H243" t="s">
-        <v>261</v>
+        <v>14</v>
+      </c>
+      <c r="I243" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
